--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -451,379 +451,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>006104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009493</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成尊享18个月定期开放混合A</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.91</t>
+          <t>21.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009494</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成尊享18个月定期开放混合C</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.91</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>009859</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>银华乐享混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009859</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华乐享混合</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>74.64</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>009368</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>浦银安盛价值精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>519126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>浦银安盛新经济结构灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>010613</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>中融产业趋势一年定期开放混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>80.91</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4.29</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>005552</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519126</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浦银安盛新经济结构灵活配置混合</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>93.01</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>005553</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001967</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华宝转型升级灵活配置混合</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>009369</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>浦银安盛价值精选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>中融高股息精选混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>009493</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>大成尊享18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001967</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>华宝转型升级灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>010614</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>中融产业趋势一年定期开放混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>006124</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>中融高股息精选混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>009494</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>大成尊享18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>009368</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浦银安盛价值精选混合A</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2274,26 +2914,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>009369</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>浦银安盛价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>5</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2922,7 +2923,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -2938,6 +2938,2152 @@
       </c>
       <c r="H52" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7823</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6728</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5440</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5089,4 +5090,4430 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1941</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8472</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5585</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2944</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8212</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7477</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5940</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9516,4 +9517,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9525,7 +9526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9536,17 +9537,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9556,14 +9577,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>115</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.42</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9572,14 +9615,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.42</v>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9588,14 +9653,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.52</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9604,13 +9691,4635 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5433</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4900</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1697</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0613</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9546</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6609</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14218,7 +14219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14229,17 +14230,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14249,14 +14270,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.23</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14265,14 +14308,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.42</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14281,14 +14346,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.42</v>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -14297,14 +14384,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.52</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -14313,13 +14422,5707 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7996</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4944</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2665</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2245</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1720</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1625</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1416</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0833</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8929</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8672</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7329</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6825</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6668</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6055</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5621</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5348</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20005,7 +20006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20016,17 +20017,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20036,14 +20057,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>151</v>
-      </c>
-      <c r="D2" t="n">
-        <v>71.23</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -20052,14 +20095,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>122</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.23</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -20068,14 +20133,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>115</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.42</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -20084,14 +20171,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.42</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>141.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -20100,14 +20209,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.52</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -20116,13 +20247,4819 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8647</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5522</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4947</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1604</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1476</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0164</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9418</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9418</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6369</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5668</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5535</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4285</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>151</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>115</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>56.82</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D3" t="n">
-        <v>71.23</v>
+        <v>56.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>61.23</v>
+        <v>71.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>49.42</v>
+        <v>61.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
-        <v>22.42</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>12.52</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.12</v>
       </c>
     </row>
@@ -600,6 +617,3138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0706</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6954</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5519,7 +8668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11305,7 +14454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15997,7 +19146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20423,7 +23572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22569,7 +25718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24556,7 +27705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601677-明泰铝业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>29.29</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>56.82</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D4" t="n">
-        <v>71.23</v>
+        <v>56.82</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D5" t="n">
-        <v>61.23</v>
+        <v>71.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D6" t="n">
-        <v>49.42</v>
+        <v>61.23</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D7" t="n">
-        <v>22.42</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>12.52</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,2760 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7586</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5568</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3748,7 +7031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8668,7 +11951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14454,7 +17737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19146,7 +22429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23572,7 +26855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25718,7 +29001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27703,516 +30986,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6092</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8153</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7846</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6097</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0823</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>